--- a/传输协议.xlsx
+++ b/传输协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="心跳" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470">
   <si>
     <t>报文
 Packet</t>
@@ -107,7 +107,7 @@
 PacketID</t>
   </si>
   <si>
-    <t>0x1b</t>
+    <t>0x2f</t>
   </si>
   <si>
     <t>报文ID开始，到SUM结束</t>
@@ -178,6 +178,14 @@
     <t>运行过程中车辆所行驶的累计距离</t>
   </si>
   <si>
+    <t>行程
+DisOfDriver</t>
+  </si>
+  <si>
+    <t>总行程
+AllDisOfDriver</t>
+  </si>
+  <si>
     <t>油耗
 FuelOil</t>
   </si>
@@ -194,6 +202,26 @@
   <si>
     <t xml:space="preserve">运行过程所使用的燃料累计量
 </t>
+  </si>
+  <si>
+    <t>路面曲率
+Curvature</t>
+  </si>
+  <si>
+    <t>SensorDKSwitch
+传感器开关</t>
+  </si>
+  <si>
+    <t>CompassDirection</t>
+  </si>
+  <si>
+    <t>AxleWeight</t>
+  </si>
+  <si>
+    <t>TrailWeight</t>
+  </si>
+  <si>
+    <t>StuffWeight</t>
   </si>
   <si>
     <t>方向
@@ -472,10 +500,16 @@
     <t>旅程距离</t>
   </si>
   <si>
+    <t>在一次旅程中经过的路程</t>
+  </si>
+  <si>
     <t>5、8</t>
   </si>
   <si>
     <t>总的行车距离</t>
+  </si>
+  <si>
+    <t>在车辆运行过程中累计经过的路程</t>
   </si>
   <si>
     <t>减速器结构</t>
@@ -1396,6 +1430,18 @@
   </si>
   <si>
     <t>fe6f</t>
+  </si>
+  <si>
+    <t>正向车辆正向速度</t>
+  </si>
+  <si>
+    <t>正向车辆距离</t>
+  </si>
+  <si>
+    <t>可适应性巡游控制设置速度</t>
+  </si>
+  <si>
+    <t>路况曲度</t>
   </si>
   <si>
     <t>高分辨率车辆速度</t>
@@ -1451,10 +1497,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1499,29 +1545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1560,19 +1583,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1600,24 +1651,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1723,25 +1769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,37 +1787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,7 +1829,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1862,36 +1938,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,6 +2068,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2042,6 +2103,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2078,41 +2159,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2127,10 +2173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2139,137 +2185,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2477,18 +2523,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2516,10 +2562,40 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2900,10 +2976,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2916,49 +2992,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="36.75" spans="1:15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="N1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="85" t="s">
+      <c r="O1" s="95" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2975,13 +3051,13 @@
       <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="86">
+      <c r="F2" s="96">
         <v>8</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -2993,7 +3069,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="98" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3002,13 +3078,13 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="96">
         <v>8</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="22" t="s">
@@ -3020,7 +3096,7 @@
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="99" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3029,13 +3105,13 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="96">
         <v>8</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="22" t="s">
@@ -3053,11 +3129,11 @@
       <c r="L4" s="24">
         <v>255</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="97" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="24"/>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="99" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3066,13 +3142,13 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="96">
         <v>8</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="22" t="s">
@@ -3090,24 +3166,24 @@
       <c r="L5" s="24">
         <v>251</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="102" t="s">
         <v>31</v>
       </c>
       <c r="N5" s="24"/>
-      <c r="O5" s="93"/>
+      <c r="O5" s="103"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:15">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="101" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="22">
         <v>16</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -3127,20 +3203,20 @@
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="24"/>
-      <c r="O6" s="93"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:15">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="96">
         <v>8</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="22" t="s">
@@ -3162,7 +3238,7 @@
         <v>35</v>
       </c>
       <c r="N7" s="24"/>
-      <c r="O7" s="90" t="s">
+      <c r="O7" s="100" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3171,13 +3247,13 @@
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="96">
         <v>8</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="22" t="s">
@@ -3199,7 +3275,7 @@
         <v>35</v>
       </c>
       <c r="N8" s="24"/>
-      <c r="O8" s="90" t="s">
+      <c r="O8" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3208,13 +3284,13 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="101" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="22">
         <v>32</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="22" t="s">
@@ -3236,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="24"/>
-      <c r="O9" s="90" t="s">
+      <c r="O9" s="100" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3245,13 +3321,13 @@
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="101" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="22">
         <v>32</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -3273,7 +3349,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="24"/>
-      <c r="O10" s="90" t="s">
+      <c r="O10" s="100" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3282,94 +3358,70 @@
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="101" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="22">
         <v>32</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="37">
-        <v>0</v>
-      </c>
-      <c r="K11" s="37">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
-        <v>4211081215</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="90" t="s">
-        <v>47</v>
-      </c>
+      <c r="O11" s="100"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:15">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="91" t="s">
-        <v>48</v>
+      <c r="E12" s="101" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="22">
         <v>32</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="37">
-        <v>0</v>
-      </c>
-      <c r="K12" s="37">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
-        <v>4211081215</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="24"/>
-      <c r="O12" s="90" t="s">
-        <v>49</v>
-      </c>
+      <c r="O12" s="100"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:15">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="86">
-        <v>8</v>
-      </c>
-      <c r="G13" s="87" t="s">
+      <c r="E13" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="22">
+        <v>32</v>
+      </c>
+      <c r="G13" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I13" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="37">
         <v>0</v>
@@ -3377,11 +3429,15 @@
       <c r="K13" s="37">
         <v>0</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="24">
+        <v>4211081215</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="90" t="s">
-        <v>51</v>
+      <c r="O13" s="100" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:15">
@@ -3389,302 +3445,260 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="86">
-        <v>8</v>
-      </c>
-      <c r="G14" s="87" t="s">
+      <c r="E14" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="22">
+        <v>32</v>
+      </c>
+      <c r="G14" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I14" s="22">
-        <v>1</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0</v>
+      </c>
+      <c r="L14" s="24">
+        <v>4211081215</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="N14" s="24"/>
-      <c r="O14" s="90"/>
+      <c r="O14" s="100" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:15">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="86">
-        <v>8</v>
-      </c>
-      <c r="G15" s="87" t="s">
+      <c r="E15" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="22">
+        <v>16</v>
+      </c>
+      <c r="G15" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="22">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I15" s="22"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="24"/>
       <c r="M15" s="22"/>
       <c r="N15" s="24"/>
-      <c r="O15" s="90"/>
+      <c r="O15" s="100"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:15">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="86">
-        <v>8</v>
-      </c>
-      <c r="G16" s="87" t="s">
+      <c r="E16" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="22">
+        <v>16</v>
+      </c>
+      <c r="G16" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="22">
-        <v>1</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="37">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <v>255</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="22"/>
       <c r="N16" s="24"/>
-      <c r="O16" s="90" t="s">
-        <v>55</v>
-      </c>
+      <c r="O16" s="100"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:15">
-      <c r="A17" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="22">
         <v>16</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="86">
-        <v>8</v>
-      </c>
-      <c r="G17" s="87" t="s">
+      <c r="G17" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="24"/>
       <c r="M17" s="22"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="88" t="s">
-        <v>22</v>
-      </c>
+      <c r="O17" s="100"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="86">
-        <v>8</v>
-      </c>
-      <c r="G18" s="87" t="s">
+      <c r="E18" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="22">
+        <v>16</v>
+      </c>
+      <c r="G18" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="22">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="24"/>
       <c r="M18" s="22"/>
       <c r="N18" s="24"/>
-      <c r="O18" s="89" t="s">
-        <v>25</v>
-      </c>
+      <c r="O18" s="100"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="86">
-        <v>8</v>
-      </c>
-      <c r="G19" s="87" t="s">
+      <c r="E19" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="22">
+        <v>16</v>
+      </c>
+      <c r="G19" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="22">
-        <v>1</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0</v>
-      </c>
-      <c r="L19" s="24">
-        <v>255</v>
-      </c>
-      <c r="M19" s="87" t="s">
-        <v>28</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="89" t="s">
-        <v>29</v>
-      </c>
+      <c r="O19" s="100"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="86">
-        <v>4</v>
-      </c>
-      <c r="G20" s="87" t="s">
+      <c r="E20" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="22">
+        <v>16</v>
+      </c>
+      <c r="G20" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="22">
-        <v>1</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="100"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="86">
-        <v>4</v>
-      </c>
-      <c r="G21" s="87" t="s">
+      <c r="E21" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="96">
+        <v>8</v>
+      </c>
+      <c r="G21" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I21" s="22">
         <v>1</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="37">
         <v>0</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="37">
         <v>0</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22" t="s">
-        <v>62</v>
+      <c r="L21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="100" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:15">
-      <c r="A22" s="40"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="22">
-        <v>32</v>
-      </c>
-      <c r="G22" s="87" t="s">
+      <c r="E22" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="96">
+        <v>8</v>
+      </c>
+      <c r="G22" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I22" s="22">
         <v>1</v>
       </c>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="100"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="86">
-        <v>64</v>
-      </c>
-      <c r="G23" s="87" t="s">
+      <c r="E23" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="96">
+        <v>8</v>
+      </c>
+      <c r="G23" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -3693,25 +3707,25 @@
       <c r="I23" s="22">
         <v>1</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="100"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="86">
+        <v>62</v>
+      </c>
+      <c r="F24" s="96">
         <v>8</v>
       </c>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="22" t="s">
@@ -3731,20 +3745,282 @@
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="90" t="s">
-        <v>55</v>
+      <c r="O24" s="100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:15">
+      <c r="A25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="96">
+        <v>8</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:15">
+      <c r="A26" s="40"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="96">
+        <v>8</v>
+      </c>
+      <c r="G26" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:15">
+      <c r="A27" s="40"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="96">
+        <v>8</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="22">
+        <v>1</v>
+      </c>
+      <c r="J27" s="22">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="24">
+        <v>255</v>
+      </c>
+      <c r="M27" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="96">
+        <v>4</v>
+      </c>
+      <c r="G28" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="22">
+        <v>1</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:15">
+      <c r="A29" s="40"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="96">
+        <v>4</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="22">
+        <v>1</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:15">
+      <c r="A30" s="40"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="22">
+        <v>32</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="22">
+        <v>1</v>
+      </c>
+      <c r="J30" s="22">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22">
+        <v>0</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:15">
+      <c r="A31" s="40"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="96">
+        <v>64</v>
+      </c>
+      <c r="G31" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="22">
+        <v>1</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:15">
+      <c r="A32" s="40"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="96">
+        <v>8</v>
+      </c>
+      <c r="G32" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="22">
+        <v>1</v>
+      </c>
+      <c r="J32" s="22">
+        <v>0</v>
+      </c>
+      <c r="K32" s="37">
+        <v>0</v>
+      </c>
+      <c r="L32" s="24">
+        <v>255</v>
+      </c>
+      <c r="M32" s="22"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="100" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C2:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="D2:D16"/>
-    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C2:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D2:D24"/>
+    <mergeCell ref="D25:D32"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3757,8 +4033,8 @@
   <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3769,49 +4045,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="36.75" spans="1:15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="N1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="85" t="s">
+      <c r="O1" s="95" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3820,19 +4096,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D2" s="22"/>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="86">
+      <c r="F2" s="96">
         <v>8</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -3844,7 +4120,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="22"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="98" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3853,17 +4129,17 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="96">
         <v>8</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I3" s="22">
         <v>1</v>
@@ -3873,7 +4149,7 @@
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
       <c r="N3" s="24"/>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="99" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3882,13 +4158,13 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="96">
         <v>8</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="22" t="s">
@@ -3906,11 +4182,11 @@
       <c r="L4" s="24">
         <v>255</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="97" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="24"/>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="99" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3920,16 +4196,16 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="96">
+        <v>8</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" s="86">
-        <v>8</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="I5" s="22">
         <v>1</v>
@@ -3943,7 +4219,7 @@
       <c r="L5" s="22">
         <v>14</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="97" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="22"/>
@@ -3955,12 +4231,12 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -3976,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="22"/>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="97" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="22"/>
@@ -3988,12 +4264,12 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="86">
+        <v>62</v>
+      </c>
+      <c r="F7" s="96">
         <v>8</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="22" t="s">
@@ -4013,8 +4289,8 @@
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="24"/>
-      <c r="O7" s="90" t="s">
-        <v>55</v>
+      <c r="O7" s="100" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="37" customHeight="1" spans="1:15">
@@ -4022,19 +4298,19 @@
         <v>0</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="96">
         <v>8</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="22" t="s">
@@ -4046,7 +4322,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="22"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="88" t="s">
+      <c r="O8" s="98" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4055,17 +4331,17 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="96">
         <v>8</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
@@ -4075,7 +4351,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="22"/>
       <c r="N9" s="24"/>
-      <c r="O9" s="89" t="s">
+      <c r="O9" s="99" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4084,13 +4360,13 @@
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="96">
         <v>8</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -4108,11 +4384,11 @@
       <c r="L10" s="24">
         <v>255</v>
       </c>
-      <c r="M10" s="87" t="s">
+      <c r="M10" s="97" t="s">
         <v>28</v>
       </c>
       <c r="N10" s="24"/>
-      <c r="O10" s="89" t="s">
+      <c r="O10" s="99" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4121,13 +4397,13 @@
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="86">
+      <c r="E11" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="96">
         <v>8</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="22" t="s">
@@ -4139,28 +4415,28 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="87"/>
+      <c r="M11" s="97"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="89" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:15">
+      <c r="O11" s="99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:15">
       <c r="A12" s="40"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="86">
+        <v>80</v>
+      </c>
+      <c r="F12" s="96">
         <v>8</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I12" s="22">
         <v>1</v>
@@ -4174,7 +4450,7 @@
       <c r="L12" s="22">
         <v>4</v>
       </c>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="97" t="s">
         <v>28</v>
       </c>
       <c r="N12" s="22"/>
@@ -4186,12 +4462,12 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -4207,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="22"/>
-      <c r="M13" s="87" t="s">
+      <c r="M13" s="97" t="s">
         <v>28</v>
       </c>
       <c r="N13" s="22"/>
@@ -4219,12 +4495,12 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="22" t="s">
@@ -4240,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="22"/>
-      <c r="M14" s="87"/>
+      <c r="M14" s="97"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
@@ -4250,12 +4526,12 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="86">
+        <v>62</v>
+      </c>
+      <c r="F15" s="96">
         <v>8</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="22" t="s">
@@ -4275,8 +4551,8 @@
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="24"/>
-      <c r="O15" s="90" t="s">
-        <v>55</v>
+      <c r="O15" s="100" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4299,15 +4575,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
@@ -4319,50 +4595,50 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
@@ -4373,10 +4649,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="17"/>
@@ -4389,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="13"/>
@@ -4403,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="13"/>
@@ -4411,13 +4687,13 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -4427,19 +4703,19 @@
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:8">
       <c r="A7" s="26" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="13"/>
@@ -4447,44 +4723,44 @@
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:8">
       <c r="A8" s="26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:8">
       <c r="A9" s="28" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="17"/>
@@ -4494,10 +4770,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="22"/>
       <c r="D10" s="32" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="25"/>
@@ -4511,21 +4787,21 @@
         <v>4</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="25"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:8">
+    <row r="12" ht="37" customHeight="1" spans="1:8">
       <c r="A12" s="21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29"/>
@@ -4535,13 +4811,13 @@
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29"/>
@@ -4551,13 +4827,13 @@
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29"/>
@@ -4567,13 +4843,13 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:8">
       <c r="A15" s="31" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29"/>
@@ -4583,13 +4859,13 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:8">
       <c r="A16" s="31" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="29"/>
@@ -4599,13 +4875,13 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:8">
       <c r="A17" s="40" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29"/>
@@ -4615,13 +4891,13 @@
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29"/>
@@ -4631,22 +4907,24 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:8">
       <c r="A19" s="41" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="46" t="s">
+        <v>143</v>
+      </c>
       <c r="H19" s="24"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:8">
@@ -4654,24 +4932,26 @@
       <c r="B20" s="48"/>
       <c r="C20" s="47"/>
       <c r="D20" s="49" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="H20" s="24"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:8">
       <c r="A21" s="22" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29"/>
@@ -4681,13 +4961,13 @@
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29"/>
@@ -4697,13 +4977,13 @@
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:8">
       <c r="A23" s="22" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29"/>
@@ -4713,13 +4993,13 @@
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:8">
       <c r="A24" s="22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="29"/>
@@ -4729,25 +5009,25 @@
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:8">
       <c r="A25" s="28" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H25" s="24"/>
     </row>
@@ -4756,35 +5036,35 @@
       <c r="B26" s="48"/>
       <c r="C26" s="53"/>
       <c r="D26" s="22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F26" s="53"/>
       <c r="G26" s="54" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H26" s="24"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:8">
       <c r="A27" s="51" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D27" s="22">
         <v>1</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="24"/>
@@ -4797,10 +5077,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="24"/>
@@ -4813,10 +5093,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24"/>
@@ -4829,10 +5109,10 @@
         <v>4</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="24"/>
@@ -4845,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
@@ -4859,7 +5139,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
@@ -4867,19 +5147,19 @@
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:8">
       <c r="A33" s="51" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
@@ -4890,10 +5170,10 @@
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
@@ -4901,22 +5181,22 @@
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:8">
       <c r="A35" s="22" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+        <v>124</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="24"/>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:8">
@@ -4924,10 +5204,10 @@
       <c r="B36" s="50"/>
       <c r="C36" s="55"/>
       <c r="D36" s="22" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
@@ -4938,10 +5218,10 @@
       <c r="B37" s="50"/>
       <c r="C37" s="55"/>
       <c r="D37" s="22" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
@@ -4952,10 +5232,10 @@
       <c r="B38" s="50"/>
       <c r="C38" s="53"/>
       <c r="D38" s="22" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
@@ -4963,25 +5243,25 @@
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:8">
       <c r="A39" s="57" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G39" s="58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H39" s="24"/>
     </row>
@@ -4990,32 +5270,32 @@
       <c r="B40" s="48"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="13" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H40" s="24"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:8">
       <c r="A41" s="51" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D41" s="22">
         <v>1</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
@@ -5026,16 +5306,16 @@
       <c r="B42" s="56"/>
       <c r="C42" s="55"/>
       <c r="D42" s="22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H42" s="24"/>
     </row>
@@ -5044,16 +5324,16 @@
       <c r="B43" s="56"/>
       <c r="C43" s="55"/>
       <c r="D43" s="22" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H43" s="24"/>
     </row>
@@ -5062,28 +5342,28 @@
       <c r="B44" s="48"/>
       <c r="C44" s="53"/>
       <c r="D44" s="22" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H44" s="24"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:8">
       <c r="A45" s="22" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="29"/>
@@ -5093,13 +5373,13 @@
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:8">
       <c r="A46" s="40" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="29"/>
@@ -5109,13 +5389,13 @@
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:8">
       <c r="A47" s="22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="29"/>
@@ -5125,19 +5405,19 @@
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="13"/>
@@ -5145,13 +5425,13 @@
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:8">
       <c r="A49" s="22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="29"/>
@@ -5161,13 +5441,13 @@
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:8">
       <c r="A50" s="22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="29"/>
@@ -5177,23 +5457,23 @@
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:8">
       <c r="A51" s="51" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D51" s="22">
         <v>1</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="60" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H51" s="24"/>
     </row>
@@ -5205,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
@@ -5216,10 +5496,10 @@
       <c r="B53" s="64"/>
       <c r="C53" s="53"/>
       <c r="D53" s="22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
@@ -5227,25 +5507,25 @@
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:8">
       <c r="A54" s="51" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D54" s="22">
         <v>1</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H54" s="24"/>
     </row>
@@ -5254,16 +5534,16 @@
       <c r="B55" s="63"/>
       <c r="C55" s="55"/>
       <c r="D55" s="22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F55" s="65" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G55" s="60" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H55" s="24"/>
     </row>
@@ -5272,16 +5552,16 @@
       <c r="B56" s="63"/>
       <c r="C56" s="55"/>
       <c r="D56" s="22" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F56" s="65" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H56" s="24"/>
     </row>
@@ -5293,13 +5573,13 @@
         <v>6</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H57" s="24"/>
     </row>
@@ -5308,28 +5588,28 @@
       <c r="B58" s="64"/>
       <c r="C58" s="53"/>
       <c r="D58" s="22" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H58" s="24"/>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:8">
       <c r="A59" s="40" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="29"/>
@@ -5339,13 +5619,13 @@
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:8">
       <c r="A60" s="22" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="29"/>
@@ -5355,13 +5635,13 @@
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:8">
       <c r="A61" s="22" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="29"/>
@@ -5371,13 +5651,13 @@
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:8">
       <c r="A62" s="22" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="29"/>
@@ -5387,19 +5667,19 @@
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:8">
       <c r="A63" s="22" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D63" s="22">
         <v>1</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="25"/>
@@ -5413,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="25"/>
@@ -5427,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="25"/>
@@ -5438,10 +5718,10 @@
       <c r="B66" s="64"/>
       <c r="C66" s="67"/>
       <c r="D66" s="22" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="25"/>
@@ -5449,13 +5729,13 @@
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:8">
       <c r="A67" s="22" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="29"/>
@@ -5465,13 +5745,13 @@
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:8">
       <c r="A68" s="22" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="29"/>
@@ -5481,13 +5761,13 @@
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:8">
       <c r="A69" s="22" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="29"/>
@@ -5497,13 +5777,13 @@
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:8">
       <c r="A70" s="22" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="29"/>
@@ -5513,13 +5793,13 @@
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:8">
       <c r="A71" s="22" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="29"/>
@@ -5529,13 +5809,13 @@
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:8">
       <c r="A72" s="40" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="29"/>
@@ -5545,13 +5825,13 @@
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:8">
       <c r="A73" s="22" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B73" s="68" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="29"/>
@@ -5560,54 +5840,54 @@
       <c r="H73" s="24"/>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:8">
-      <c r="A74" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="B74" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="22">
+      <c r="A74" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="10">
         <v>1</v>
       </c>
-      <c r="E74" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
+      <c r="E74" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="24"/>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:8">
-      <c r="A75" s="53"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="22">
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="10">
         <v>2</v>
       </c>
-      <c r="E75" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
+      <c r="E75" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="24"/>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:8">
       <c r="A76" s="40" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D76" s="22">
         <v>1</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="25"/>
@@ -5615,50 +5895,50 @@
     </row>
     <row r="77" ht="30" customHeight="1" spans="1:8">
       <c r="A77" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B77" s="69" t="s">
-        <v>275</v>
+        <v>284</v>
+      </c>
+      <c r="B77" s="70" t="s">
+        <v>285</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G77" s="72" t="s">
-        <v>278</v>
+        <v>287</v>
+      </c>
+      <c r="G77" s="71" t="s">
+        <v>288</v>
       </c>
       <c r="H77" s="24"/>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:8">
       <c r="A78" s="26"/>
-      <c r="B78" s="71"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="26"/>
       <c r="D78" s="10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F78" s="20"/>
-      <c r="G78" s="72" t="s">
+      <c r="G78" s="71" t="s">
         <v>42</v>
       </c>
       <c r="H78" s="24"/>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:8">
       <c r="A79" s="40" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B79" s="68" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C79" s="40"/>
       <c r="D79" s="22"/>
@@ -5669,19 +5949,19 @@
     </row>
     <row r="80" ht="30" customHeight="1" spans="1:8">
       <c r="A80" s="22" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F80" s="24"/>
       <c r="G80" s="25"/>
@@ -5689,19 +5969,19 @@
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:8">
       <c r="A81" s="51" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B81" s="74" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="25"/>
@@ -5712,10 +5992,10 @@
       <c r="B82" s="75"/>
       <c r="C82" s="53"/>
       <c r="D82" s="22" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="25"/>
@@ -5723,13 +6003,13 @@
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:8">
       <c r="A83" s="22" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="29"/>
@@ -5739,13 +6019,13 @@
     </row>
     <row r="84" ht="30" customHeight="1" spans="1:8">
       <c r="A84" s="22" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="29"/>
@@ -5755,13 +6035,13 @@
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:8">
       <c r="A85" s="22" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B85" s="73" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="29"/>
@@ -5771,13 +6051,13 @@
     </row>
     <row r="86" ht="30" customHeight="1" spans="1:8">
       <c r="A86" s="22" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B86" s="73" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="29"/>
@@ -5787,13 +6067,13 @@
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:8">
       <c r="A87" s="22" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B87" s="76" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="29"/>
@@ -5803,13 +6083,13 @@
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:8">
       <c r="A88" s="40" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B88" s="73" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="29"/>
@@ -5819,13 +6099,13 @@
     </row>
     <row r="89" ht="30" customHeight="1" spans="1:8">
       <c r="A89" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B89" s="73" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="29"/>
@@ -5835,13 +6115,13 @@
     </row>
     <row r="90" ht="30" customHeight="1" spans="1:8">
       <c r="A90" s="22" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B90" s="73" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="29"/>
@@ -5851,13 +6131,13 @@
     </row>
     <row r="91" ht="30" customHeight="1" spans="1:8">
       <c r="A91" s="22" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="29"/>
@@ -5867,13 +6147,13 @@
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:8">
       <c r="A92" s="22" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B92" s="73" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="29"/>
@@ -5883,19 +6163,19 @@
     </row>
     <row r="93" ht="30" customHeight="1" spans="1:8">
       <c r="A93" s="51" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="25"/>
@@ -5906,10 +6186,10 @@
       <c r="B94" s="59"/>
       <c r="C94" s="53"/>
       <c r="D94" s="22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="25"/>
@@ -5917,13 +6197,13 @@
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:8">
       <c r="A95" s="22" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="29"/>
@@ -5933,13 +6213,13 @@
     </row>
     <row r="96" ht="30" customHeight="1" spans="1:8">
       <c r="A96" s="40" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="29"/>
@@ -5949,13 +6229,13 @@
     </row>
     <row r="97" ht="30" customHeight="1" spans="1:8">
       <c r="A97" s="22" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="29"/>
@@ -5965,13 +6245,13 @@
     </row>
     <row r="98" ht="30" customHeight="1" spans="1:8">
       <c r="A98" s="40" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="29"/>
@@ -5981,13 +6261,13 @@
     </row>
     <row r="99" ht="30" customHeight="1" spans="1:8">
       <c r="A99" s="22" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="29"/>
@@ -5997,13 +6277,13 @@
     </row>
     <row r="100" ht="30" customHeight="1" spans="1:8">
       <c r="A100" s="22" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="29"/>
@@ -6013,13 +6293,13 @@
     </row>
     <row r="101" ht="30" customHeight="1" spans="1:8">
       <c r="A101" s="22" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="29"/>
@@ -6029,13 +6309,13 @@
     </row>
     <row r="102" ht="30" customHeight="1" spans="1:8">
       <c r="A102" s="22" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="29"/>
@@ -6045,13 +6325,13 @@
     </row>
     <row r="103" ht="30" customHeight="1" spans="1:8">
       <c r="A103" s="22" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="29"/>
@@ -6061,13 +6341,13 @@
     </row>
     <row r="104" ht="30" customHeight="1" spans="1:8">
       <c r="A104" s="22" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="29"/>
@@ -6077,13 +6357,13 @@
     </row>
     <row r="105" ht="30" customHeight="1" spans="1:8">
       <c r="A105" s="22" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="29"/>
@@ -6093,13 +6373,13 @@
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:8">
       <c r="A106" s="22" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B106" s="77" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="29"/>
@@ -6109,13 +6389,13 @@
     </row>
     <row r="107" ht="30" customHeight="1" spans="1:8">
       <c r="A107" s="22" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B107" s="77" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="29"/>
@@ -6125,13 +6405,13 @@
     </row>
     <row r="108" ht="30" customHeight="1" spans="1:8">
       <c r="A108" s="22" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B108" s="77" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="29"/>
@@ -6141,13 +6421,13 @@
     </row>
     <row r="109" ht="30" customHeight="1" spans="1:8">
       <c r="A109" s="22" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B109" s="77" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D109" s="22"/>
       <c r="E109" s="29"/>
@@ -6157,13 +6437,13 @@
     </row>
     <row r="110" ht="30" customHeight="1" spans="1:8">
       <c r="A110" s="22" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B110" s="78" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="29"/>
@@ -6173,13 +6453,13 @@
     </row>
     <row r="111" ht="30" customHeight="1" spans="1:8">
       <c r="A111" s="22" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B111" s="78" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="29"/>
@@ -6189,13 +6469,13 @@
     </row>
     <row r="112" ht="30" customHeight="1" spans="1:8">
       <c r="A112" s="22" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B112" s="78" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D112" s="22"/>
       <c r="E112" s="29"/>
@@ -6205,13 +6485,13 @@
     </row>
     <row r="113" ht="30" customHeight="1" spans="1:8">
       <c r="A113" s="22" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B113" s="78" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D113" s="22"/>
       <c r="E113" s="29"/>
@@ -6221,13 +6501,13 @@
     </row>
     <row r="114" ht="30" customHeight="1" spans="1:8">
       <c r="A114" s="22" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B114" s="78" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="29"/>
@@ -6237,13 +6517,13 @@
     </row>
     <row r="115" ht="30" customHeight="1" spans="1:8">
       <c r="A115" s="22" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B115" s="78" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D115" s="22"/>
       <c r="E115" s="29"/>
@@ -6253,13 +6533,13 @@
     </row>
     <row r="116" ht="30" customHeight="1" spans="1:8">
       <c r="A116" s="22" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B116" s="78" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D116" s="22"/>
       <c r="E116" s="29"/>
@@ -6269,13 +6549,13 @@
     </row>
     <row r="117" ht="30" customHeight="1" spans="1:8">
       <c r="A117" s="22" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B117" s="78" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="29"/>
@@ -6285,13 +6565,13 @@
     </row>
     <row r="118" ht="30" customHeight="1" spans="1:8">
       <c r="A118" s="22" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B118" s="78" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D118" s="22"/>
       <c r="E118" s="29"/>
@@ -6301,13 +6581,13 @@
     </row>
     <row r="119" ht="30" customHeight="1" spans="1:8">
       <c r="A119" s="22" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B119" s="78" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="29"/>
@@ -6317,13 +6597,13 @@
     </row>
     <row r="120" ht="30" customHeight="1" spans="1:8">
       <c r="A120" s="22" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D120" s="22"/>
       <c r="E120" s="29"/>
@@ -6333,13 +6613,13 @@
     </row>
     <row r="121" ht="30" customHeight="1" spans="1:8">
       <c r="A121" s="40" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D121" s="22"/>
       <c r="E121" s="29"/>
@@ -6349,13 +6629,13 @@
     </row>
     <row r="122" ht="30" customHeight="1" spans="1:8">
       <c r="A122" s="22" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D122" s="22"/>
       <c r="E122" s="29"/>
@@ -6365,13 +6645,13 @@
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:8">
       <c r="A123" s="22" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B123" s="79" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="29"/>
@@ -6381,13 +6661,13 @@
     </row>
     <row r="124" ht="30" customHeight="1" spans="1:8">
       <c r="A124" s="22" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B124" s="79" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D124" s="22"/>
       <c r="E124" s="29"/>
@@ -6397,13 +6677,13 @@
     </row>
     <row r="125" ht="30" customHeight="1" spans="1:8">
       <c r="A125" s="22" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B125" s="80" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D125" s="22"/>
       <c r="E125" s="29"/>
@@ -6413,13 +6693,13 @@
     </row>
     <row r="126" ht="30" customHeight="1" spans="1:8">
       <c r="A126" s="22" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B126" s="80" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="29"/>
@@ -6429,13 +6709,13 @@
     </row>
     <row r="127" ht="30" customHeight="1" spans="1:8">
       <c r="A127" s="22" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B127" s="80" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D127" s="22"/>
       <c r="E127" s="29"/>
@@ -6445,13 +6725,13 @@
     </row>
     <row r="128" ht="30" customHeight="1" spans="1:8">
       <c r="A128" s="22" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B128" s="80" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D128" s="22"/>
       <c r="E128" s="29"/>
@@ -6461,13 +6741,13 @@
     </row>
     <row r="129" ht="30" customHeight="1" spans="1:8">
       <c r="A129" s="22" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B129" s="81" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D129" s="22"/>
       <c r="E129" s="29"/>
@@ -6477,13 +6757,13 @@
     </row>
     <row r="130" ht="30" customHeight="1" spans="1:8">
       <c r="A130" s="22" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B130" s="81" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D130" s="22"/>
       <c r="E130" s="29"/>
@@ -6493,13 +6773,13 @@
     </row>
     <row r="131" ht="30" customHeight="1" spans="1:8">
       <c r="A131" s="22" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B131" s="81" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D131" s="22"/>
       <c r="E131" s="29"/>
@@ -6509,13 +6789,13 @@
     </row>
     <row r="132" ht="30" customHeight="1" spans="1:8">
       <c r="A132" s="22" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B132" s="81" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="29"/>
@@ -6525,13 +6805,13 @@
     </row>
     <row r="133" ht="30" customHeight="1" spans="1:8">
       <c r="A133" s="22" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B133" s="81" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D133" s="22"/>
       <c r="E133" s="29"/>
@@ -6541,13 +6821,13 @@
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:8">
       <c r="A134" s="22" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B134" s="81" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D134" s="22"/>
       <c r="E134" s="29"/>
@@ -6557,13 +6837,13 @@
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:8">
       <c r="A135" s="22" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B135" s="81" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D135" s="22"/>
       <c r="E135" s="29"/>
@@ -6573,13 +6853,13 @@
     </row>
     <row r="136" ht="30" customHeight="1" spans="1:8">
       <c r="A136" s="22" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B136" s="81" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D136" s="22"/>
       <c r="E136" s="29"/>
@@ -6589,13 +6869,13 @@
     </row>
     <row r="137" ht="30" customHeight="1" spans="1:8">
       <c r="A137" s="22" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B137" s="81" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D137" s="22"/>
       <c r="E137" s="29"/>
@@ -6605,13 +6885,13 @@
     </row>
     <row r="138" ht="30" customHeight="1" spans="1:8">
       <c r="A138" s="22" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B138" s="81" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D138" s="22"/>
       <c r="E138" s="29"/>
@@ -6621,13 +6901,13 @@
     </row>
     <row r="139" ht="30" customHeight="1" spans="1:8">
       <c r="A139" s="22" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B139" s="81" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D139" s="22"/>
       <c r="E139" s="29"/>
@@ -6637,13 +6917,13 @@
     </row>
     <row r="140" ht="30" customHeight="1" spans="1:8">
       <c r="A140" s="22" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B140" s="77" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D140" s="22"/>
       <c r="E140" s="29"/>
@@ -6653,13 +6933,13 @@
     </row>
     <row r="141" ht="30" customHeight="1" spans="1:8">
       <c r="A141" s="22" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B141" s="77" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D141" s="22"/>
       <c r="E141" s="29"/>
@@ -6669,13 +6949,13 @@
     </row>
     <row r="142" ht="30" customHeight="1" spans="1:8">
       <c r="A142" s="22" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B142" s="77" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D142" s="22"/>
       <c r="E142" s="29"/>
@@ -6685,13 +6965,13 @@
     </row>
     <row r="143" ht="30" customHeight="1" spans="1:8">
       <c r="A143" s="22" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B143" s="77" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D143" s="22"/>
       <c r="E143" s="29"/>
@@ -6701,13 +6981,13 @@
     </row>
     <row r="144" ht="30" customHeight="1" spans="1:8">
       <c r="A144" s="22" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B144" s="77" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D144" s="22"/>
       <c r="E144" s="29"/>
@@ -6717,13 +6997,13 @@
     </row>
     <row r="145" ht="30" customHeight="1" spans="1:8">
       <c r="A145" s="22" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B145" s="77" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D145" s="22"/>
       <c r="E145" s="29"/>
@@ -6733,13 +7013,13 @@
     </row>
     <row r="146" ht="30" customHeight="1" spans="1:8">
       <c r="A146" s="40" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B146" s="77" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D146" s="22"/>
       <c r="E146" s="29"/>
@@ -6749,13 +7029,13 @@
     </row>
     <row r="147" ht="30" customHeight="1" spans="1:8">
       <c r="A147" s="40" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B147" s="77" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D147" s="22"/>
       <c r="E147" s="29"/>
@@ -6765,13 +7045,13 @@
     </row>
     <row r="148" ht="30" customHeight="1" spans="1:8">
       <c r="A148" s="40" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B148" s="77" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="29"/>
@@ -6781,13 +7061,13 @@
     </row>
     <row r="149" ht="30" customHeight="1" spans="1:8">
       <c r="A149" s="22" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B149" s="77" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D149" s="22"/>
       <c r="E149" s="29"/>
@@ -6797,13 +7077,13 @@
     </row>
     <row r="150" ht="30" customHeight="1" spans="1:8">
       <c r="A150" s="40" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B150" s="77" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D150" s="22"/>
       <c r="E150" s="29"/>
@@ -6813,13 +7093,13 @@
     </row>
     <row r="151" ht="30" customHeight="1" spans="1:8">
       <c r="A151" s="40" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B151" s="77" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D151" s="22"/>
       <c r="E151" s="29"/>
@@ -6829,13 +7109,13 @@
     </row>
     <row r="152" ht="30" customHeight="1" spans="1:8">
       <c r="A152" s="22" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B152" s="77" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D152" s="22"/>
       <c r="E152" s="29"/>
@@ -6845,13 +7125,13 @@
     </row>
     <row r="153" ht="30" customHeight="1" spans="1:8">
       <c r="A153" s="22" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B153" s="77" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D153" s="22"/>
       <c r="E153" s="29"/>
@@ -6861,13 +7141,13 @@
     </row>
     <row r="154" ht="30" customHeight="1" spans="1:8">
       <c r="A154" s="22" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B154" s="77" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D154" s="22"/>
       <c r="E154" s="29"/>
@@ -6877,13 +7157,13 @@
     </row>
     <row r="155" ht="30" customHeight="1" spans="1:8">
       <c r="A155" s="22" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B155" s="77" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D155" s="22"/>
       <c r="E155" s="29"/>
@@ -6893,13 +7173,13 @@
     </row>
     <row r="156" ht="30" customHeight="1" spans="1:8">
       <c r="A156" s="22" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B156" s="77" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D156" s="22"/>
       <c r="E156" s="29"/>
@@ -6908,78 +7188,76 @@
       <c r="H156" s="24"/>
     </row>
     <row r="157" ht="30" customHeight="1" spans="1:8">
-      <c r="A157" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="B157" s="82" t="s">
-        <v>439</v>
-      </c>
-      <c r="C157" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D157" s="22"/>
-      <c r="E157" s="29"/>
+      <c r="A157" s="82" t="s">
+        <v>448</v>
+      </c>
+      <c r="B157" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="C157" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" s="22">
+        <v>1</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>450</v>
+      </c>
       <c r="F157" s="24"/>
       <c r="G157" s="25"/>
       <c r="H157" s="24"/>
     </row>
     <row r="158" ht="30" customHeight="1" spans="1:8">
-      <c r="A158" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="B158" s="83" t="s">
-        <v>441</v>
-      </c>
-      <c r="C158" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D158" s="22"/>
-      <c r="E158" s="29"/>
+      <c r="A158" s="85"/>
+      <c r="B158" s="86"/>
+      <c r="C158" s="87"/>
+      <c r="D158" s="22">
+        <v>2</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>451</v>
+      </c>
       <c r="F158" s="24"/>
       <c r="G158" s="25"/>
       <c r="H158" s="24"/>
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:8">
-      <c r="A159" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B159" s="83" t="s">
-        <v>443</v>
-      </c>
-      <c r="C159" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="D159" s="10"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="13"/>
+      <c r="A159" s="85"/>
+      <c r="B159" s="86"/>
+      <c r="C159" s="87"/>
+      <c r="D159" s="22">
+        <v>3</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="F159" s="24"/>
+      <c r="G159" s="25"/>
       <c r="H159" s="24"/>
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:8">
-      <c r="A160" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="B160" s="82" t="s">
-        <v>445</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="24"/>
+      <c r="A160" s="88"/>
+      <c r="B160" s="89"/>
+      <c r="C160" s="90"/>
+      <c r="D160" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F160" s="19"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="19"/>
     </row>
     <row r="161" ht="30" customHeight="1" spans="1:8">
       <c r="A161" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="B161" s="82" t="s">
-        <v>447</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>116</v>
+        <v>454</v>
+      </c>
+      <c r="B161" s="92" t="s">
+        <v>455</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="D161" s="22"/>
       <c r="E161" s="29"/>
@@ -6988,27 +7266,31 @@
       <c r="H161" s="24"/>
     </row>
     <row r="162" ht="30" customHeight="1" spans="1:8">
-      <c r="A162" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="25"/>
+      <c r="A162" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B162" s="92" t="s">
+        <v>457</v>
+      </c>
+      <c r="C162" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="13"/>
       <c r="H162" s="24"/>
     </row>
     <row r="163" ht="30" customHeight="1" spans="1:8">
       <c r="A163" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="B163" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="C163" s="22"/>
+        <v>458</v>
+      </c>
+      <c r="B163" s="93" t="s">
+        <v>459</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>135</v>
+      </c>
       <c r="D163" s="22"/>
       <c r="E163" s="29"/>
       <c r="F163" s="24"/>
@@ -7017,12 +7299,14 @@
     </row>
     <row r="164" ht="30" customHeight="1" spans="1:8">
       <c r="A164" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="B164" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="C164" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="B164" s="93" t="s">
+        <v>461</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="D164" s="22"/>
       <c r="E164" s="29"/>
       <c r="F164" s="24"/>
@@ -7031,22 +7315,64 @@
     </row>
     <row r="165" ht="30" customHeight="1" spans="1:8">
       <c r="A165" s="22" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C165" s="22"/>
       <c r="D165" s="22"/>
       <c r="E165" s="29"/>
       <c r="F165" s="24"/>
       <c r="G165" s="25"/>
       <c r="H165" s="24"/>
     </row>
+    <row r="166" ht="30" customHeight="1" spans="1:8">
+      <c r="A166" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="24"/>
+    </row>
+    <row r="167" ht="30" customHeight="1" spans="1:8">
+      <c r="A167" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="24"/>
+    </row>
+    <row r="168" ht="30" customHeight="1" spans="1:8">
+      <c r="A168" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168" s="22"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="56">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A19:A20"/>
@@ -7063,6 +7389,7 @@
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A157:A160"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B19:B20"/>
@@ -7079,6 +7406,7 @@
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B157:B160"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C19:C20"/>
@@ -7095,6 +7423,7 @@
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C157:C160"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F39:F40"/>
